--- a/userNtools.xlsx
+++ b/userNtools.xlsx
@@ -9,15 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="1" r:id="rId1"/>
-    <sheet name="ds" sheetId="2" r:id="rId2"/>
-    <sheet name="ppct" sheetId="3" r:id="rId3"/>
+    <sheet name="ppct" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ds!$A$1:$G$72</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">list!$A$1:$I$72</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -25,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="352">
   <si>
     <t>TT</t>
   </si>
@@ -420,9 +418,6 @@
     <t>trangnhung@gmail.com</t>
   </si>
   <si>
-    <t>nguyendanhdatqt@gmai.com</t>
-  </si>
-  <si>
     <t>phanthuhuongpct@gmail.com</t>
   </si>
   <si>
@@ -498,9 +493,6 @@
     <t>thanhbinhqt82@gmail.com</t>
   </si>
   <si>
-    <t>thanhtien.clv@gmail.com</t>
-  </si>
-  <si>
     <t>nguyencuongthpt2@gmail.com</t>
   </si>
   <si>
@@ -979,21 +971,6 @@
   </si>
   <si>
     <t>Hà Thị Mỹ Trang</t>
-  </si>
-  <si>
-    <t>Học và tên</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Đơn vị</t>
-  </si>
-  <si>
-    <t>Môn dạy</t>
-  </si>
-  <si>
-    <t>SĐT</t>
   </si>
   <si>
     <t>htmtrangdk2@gmail.com</t>
@@ -1278,7 +1255,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1364,24 +1341,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1424,13 +1383,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1456,66 +1415,6 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="8067675" y="2476500"/>
-          <a:ext cx="9525" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="https://mail.google.com/mail/u/0/images/cleardot.gif"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4210050" y="571500"/>
           <a:ext cx="9525" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1827,8 +1726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1851,2069 +1750,2069 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>291</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15">
-        <f t="shared" ref="A2:A33" si="0">ROW()-1</f>
+      <c r="A2" s="13">
+        <f>ROW()-1</f>
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>213</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>297</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="G2" s="15" t="s">
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="H2" s="25" t="s">
-        <v>197</v>
+      <c r="H2" s="19" t="s">
+        <v>140</v>
       </c>
       <c r="I2" s="30"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
-        <f t="shared" si="0"/>
+      <c r="A3" s="13">
+        <f>ROW()-1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>214</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>297</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="H3" s="25" t="s">
-        <v>196</v>
-      </c>
+      <c r="B3" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="19"/>
       <c r="I3" s="30"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
-        <f t="shared" si="0"/>
+      <c r="A4" s="13">
+        <f>ROW()-1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>215</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>297</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="H4" s="25" t="s">
-        <v>195</v>
+      <c r="B4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>174</v>
       </c>
       <c r="I4" s="30"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>192</v>
+        <v>95</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>193</v>
+        <v>76</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>103</v>
       </c>
       <c r="I5" s="30"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>5</v>
       </c>
-      <c r="B6" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>264</v>
+      <c r="B6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>279</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>188</v>
+        <v>94</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>189</v>
+        <v>76</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>102</v>
       </c>
       <c r="I6" s="30"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>190</v>
+        <v>254</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>292</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>306</v>
+        <v>290</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>308</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>191</v>
+        <v>73</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>137</v>
       </c>
       <c r="I7" s="30"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>186</v>
+        <v>89</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>187</v>
+        <v>97</v>
       </c>
       <c r="I8" s="30"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>262</v>
+        <v>87</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>292</v>
-      </c>
-      <c r="F9" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F9" s="13" t="s">
         <v>306</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>185</v>
+        <v>88</v>
       </c>
       <c r="I9" s="30"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>292</v>
-      </c>
-      <c r="F10" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F10" s="13" t="s">
         <v>306</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>183</v>
+        <v>305</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>205</v>
       </c>
       <c r="I10" s="30"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>52</v>
+        <v>315</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>260</v>
+        <v>317</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>182</v>
+        <v>316</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>184</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="H11" s="21"/>
       <c r="I11" s="30"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>332</v>
+        <v>268</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>331</v>
+        <v>198</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>292</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>311</v>
+        <v>290</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>306</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="I12" s="29"/>
+        <v>305</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="I12" s="30"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>171</v>
+        <v>236</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G13" s="13" t="s">
         <v>72</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="I13" s="30"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>238</v>
+        <v>170</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G14" s="13" t="s">
         <v>72</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="I14" s="30"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>172</v>
+        <v>117</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>178</v>
+        <v>312</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>118</v>
       </c>
       <c r="I15" s="30"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G16" s="13" t="s">
         <v>72</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I16" s="30"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>240</v>
+      <c r="B17" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>218</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>311</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H17" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="I17" s="30"/>
+        <v>161</v>
+      </c>
+      <c r="I17" s="31" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H18" s="19" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="I18" s="30"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="13">
-        <f t="shared" si="0"/>
+      <c r="A19" s="15">
+        <f>ROW()-1</f>
         <v>18</v>
       </c>
-      <c r="B19" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>292</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="H19" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="I19" s="31" t="s">
+      <c r="B19" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="24" t="s">
         <v>212</v>
       </c>
+      <c r="D19" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="H19" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="I19" s="30"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>129</v>
+        <v>252</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>292</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>311</v>
+        <v>290</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>308</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H20" s="19" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I20" s="30"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>130</v>
+        <v>260</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H21" s="19" t="s">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="I21" s="30"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>17</v>
+        <v>299</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>233</v>
+        <v>283</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>127</v>
+        <v>282</v>
       </c>
       <c r="E22" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>69</v>
-      </c>
+      <c r="G22" s="13"/>
       <c r="H22" s="19" t="s">
-        <v>144</v>
+        <v>294</v>
       </c>
       <c r="I22" s="30"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H23" s="19" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="I23" s="30"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>292</v>
-      </c>
-      <c r="F24" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>310</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>309</v>
+        <v>76</v>
       </c>
       <c r="H24" s="19" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="I24" s="30"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>268</v>
+        <v>233</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>292</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>310</v>
+        <v>290</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>309</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>309</v>
+        <v>69</v>
       </c>
       <c r="H25" s="19" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="I25" s="30"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>132</v>
+        <v>190</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>292</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>310</v>
+        <v>290</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>304</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="H26" s="19" t="s">
-        <v>135</v>
+        <v>75</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="I26" s="30"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>292</v>
-      </c>
-      <c r="F27" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>310</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H27" s="19" t="s">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="I27" s="30"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>62</v>
+        <v>313</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>257</v>
+        <v>319</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>256</v>
+        <v>318</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G28" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="H28" s="19" t="s">
-        <v>138</v>
-      </c>
+      <c r="H28" s="19"/>
       <c r="I28" s="30"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>254</v>
+        <v>130</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>292</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>310</v>
+        <v>290</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>309</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H29" s="19" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I29" s="30"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>253</v>
+        <v>217</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>109</v>
+        <v>151</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>292</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>310</v>
+        <v>290</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>311</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H30" s="19" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="I30" s="30"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>292</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>310</v>
+        <v>290</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>303</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="H31" s="19" t="s">
-        <v>142</v>
+        <v>312</v>
+      </c>
+      <c r="H31" s="21" t="s">
+        <v>114</v>
       </c>
       <c r="I31" s="30"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>73</v>
+        <v>307</v>
       </c>
       <c r="H32" s="19" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I32" s="30"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>315</v>
+        <v>10</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>292</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>310</v>
+        <v>290</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>309</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="30"/>
+        <v>70</v>
+      </c>
+      <c r="H33" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="I33" s="29"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="13">
-        <f t="shared" ref="A34:A65" si="1">ROW()-1</f>
+        <f>ROW()-1</f>
         <v>33</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>282</v>
+      <c r="B34" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>262</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>95</v>
+        <v>186</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="H34" s="19" t="s">
-        <v>103</v>
+        <v>75</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>187</v>
       </c>
       <c r="I34" s="30"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
-        <f t="shared" si="1"/>
+        <f>ROW()-1</f>
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>281</v>
+        <v>230</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="H35" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="I35" s="30"/>
+        <v>68</v>
+      </c>
+      <c r="H35" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="I35" s="29"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
-        <f t="shared" si="1"/>
+        <f>ROW()-1</f>
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>276</v>
+        <v>323</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>89</v>
+        <v>322</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="H36" s="19" t="s">
-        <v>97</v>
+        <v>165</v>
       </c>
       <c r="I36" s="30"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
-        <f t="shared" si="1"/>
+        <f>ROW()-1</f>
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>292</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>312</v>
+        <v>290</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>308</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>76</v>
+        <v>307</v>
       </c>
       <c r="H37" s="19" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="I37" s="30"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="13">
-        <f t="shared" si="1"/>
+        <f>ROW()-1</f>
         <v>37</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" s="18" t="s">
-        <v>278</v>
+      <c r="B38" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>245</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>292</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>312</v>
+        <v>290</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>306</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H38" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="I38" s="30"/>
+        <v>82</v>
+      </c>
+      <c r="I38" s="31" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
-        <f t="shared" si="1"/>
+        <f>ROW()-1</f>
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>279</v>
+        <v>246</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>292</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>312</v>
+        <v>290</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>306</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H39" s="19" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="I39" s="30"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="13">
-        <f t="shared" si="1"/>
+        <f>ROW()-1</f>
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>277</v>
+        <v>231</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="H40" s="19" t="s">
-        <v>98</v>
+        <v>143</v>
       </c>
       <c r="I40" s="30"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="13">
-        <f t="shared" si="1"/>
+        <f>ROW()-1</f>
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>280</v>
+        <v>225</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F41" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G41" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="G41" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="H41" s="19" t="s">
-        <v>101</v>
+      <c r="H41" s="21" t="s">
+        <v>116</v>
       </c>
       <c r="I41" s="30"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="13">
-        <f t="shared" si="1"/>
+        <f>ROW()-1</f>
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>316</v>
+        <v>34</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>328</v>
+        <v>251</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>327</v>
+        <v>109</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>292</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>313</v>
+        <v>290</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>308</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="H42" s="19"/>
+        <v>73</v>
+      </c>
+      <c r="H42" s="19" t="s">
+        <v>139</v>
+      </c>
       <c r="I42" s="30"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="13">
-        <f t="shared" si="1"/>
+        <f>ROW()-1</f>
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>152</v>
+        <v>107</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>292</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>313</v>
+        <v>290</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>308</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="H43" s="19" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="I43" s="30"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="13">
-        <f t="shared" si="1"/>
+        <f>ROW()-1</f>
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>330</v>
+        <v>285</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>329</v>
+        <v>284</v>
       </c>
       <c r="E44" s="18" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="G44" s="13" t="s">
-        <v>67</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="G44" s="13"/>
       <c r="H44" s="19" t="s">
-        <v>167</v>
+        <v>293</v>
       </c>
       <c r="I44" s="30"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="13">
-        <f t="shared" si="1"/>
+        <f>ROW()-1</f>
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="E45" s="18" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="H45" s="19" t="s">
-        <v>159</v>
+        <v>312</v>
+      </c>
+      <c r="H45" s="21" t="s">
+        <v>122</v>
       </c>
       <c r="I45" s="30"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="13">
-        <f t="shared" si="1"/>
+      <c r="A46" s="15">
+        <f>ROW()-1</f>
         <v>45</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C46" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="D46" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="E46" s="18" t="s">
-        <v>292</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="G46" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="H46" s="19" t="s">
-        <v>168</v>
+      <c r="B46" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="E46" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="G46" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="H46" s="25" t="s">
+        <v>193</v>
       </c>
       <c r="I46" s="30"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="13">
-        <f t="shared" si="1"/>
+        <f>ROW()-1</f>
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="C47" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="E47" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="H47" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="I47" s="30"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <f>ROW()-1</f>
+        <v>47</v>
+      </c>
+      <c r="B48" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" s="28" t="s">
         <v>223</v>
       </c>
-      <c r="D47" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="E47" s="18" t="s">
-        <v>292</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="G47" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="H47" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="I47" s="30"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="13">
-        <f t="shared" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C48" s="18" t="s">
-        <v>217</v>
-      </c>
-      <c r="D48" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="E48" s="18" t="s">
-        <v>292</v>
+      <c r="D48" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="E48" s="28" t="s">
+        <v>290</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="H48" s="19" t="s">
-        <v>160</v>
+        <v>312</v>
+      </c>
+      <c r="H48" s="21" t="s">
+        <v>112</v>
       </c>
       <c r="I48" s="30"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="13">
-        <f t="shared" si="1"/>
+        <f>ROW()-1</f>
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="E49" s="18" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H49" s="19" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="I49" s="30"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="13">
-        <f t="shared" si="1"/>
+        <f>ROW()-1</f>
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>155</v>
+        <v>119</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="H50" s="19" t="s">
-        <v>165</v>
+        <v>312</v>
+      </c>
+      <c r="H50" s="21" t="s">
+        <v>120</v>
       </c>
       <c r="I50" s="30"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="13">
-        <f t="shared" si="1"/>
+        <f>ROW()-1</f>
         <v>50</v>
       </c>
-      <c r="B51" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C51" s="23" t="s">
-        <v>218</v>
+      <c r="B51" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>214</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G51" s="13" t="s">
         <v>67</v>
       </c>
       <c r="H51" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="I51" s="31" t="s">
-        <v>212</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="I51" s="30"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="13">
-        <f t="shared" si="1"/>
+        <f>ROW()-1</f>
         <v>51</v>
       </c>
-      <c r="B52" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C52" s="23" t="s">
-        <v>220</v>
+      <c r="B52" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>222</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E52" s="18" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G52" s="13" t="s">
         <v>67</v>
       </c>
       <c r="H52" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="I52" s="31" t="s">
-        <v>212</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="I52" s="30"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="13">
-        <f t="shared" si="1"/>
+        <f>ROW()-1</f>
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="E53" s="18" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H53" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="I53" s="29"/>
+        <v>67</v>
+      </c>
+      <c r="H53" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="I53" s="30"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="13">
-        <f t="shared" si="1"/>
+      <c r="A54" s="15">
+        <f>ROW()-1</f>
         <v>53</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C54" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="D54" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E54" s="18" t="s">
-        <v>292</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="G54" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H54" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="I54" s="29"/>
+      <c r="B54" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="E54" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="F54" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="G54" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="H54" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="I54" s="30"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="13">
-        <f t="shared" si="1"/>
+        <f>ROW()-1</f>
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="E55" s="18" t="s">
-        <v>292</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>305</v>
+        <v>290</v>
+      </c>
+      <c r="F55" s="13" t="s">
+        <v>306</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="H55" s="21" t="s">
-        <v>118</v>
+        <v>71</v>
+      </c>
+      <c r="H55" s="19" t="s">
+        <v>86</v>
       </c>
       <c r="I55" s="30"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="13">
-        <f t="shared" si="1"/>
+        <f>ROW()-1</f>
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>317</v>
+        <v>32</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>324</v>
+        <v>244</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>323</v>
+        <v>79</v>
       </c>
       <c r="E56" s="18" t="s">
-        <v>292</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>305</v>
+        <v>290</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>306</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="H56" s="21"/>
+        <v>71</v>
+      </c>
+      <c r="H56" s="19" t="s">
+        <v>80</v>
+      </c>
       <c r="I56" s="30"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="13">
-        <f t="shared" si="1"/>
+        <f>ROW()-1</f>
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="E57" s="18" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="G57" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="H57" s="21" t="s">
-        <v>114</v>
+        <v>67</v>
+      </c>
+      <c r="H57" s="19" t="s">
+        <v>158</v>
       </c>
       <c r="I57" s="30"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="13">
-        <f t="shared" si="1"/>
+        <f>ROW()-1</f>
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E58" s="18" t="s">
-        <v>292</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>305</v>
+        <v>290</v>
+      </c>
+      <c r="F58" s="13" t="s">
+        <v>308</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="H58" s="21" t="s">
-        <v>116</v>
+        <v>73</v>
+      </c>
+      <c r="H58" s="19" t="s">
+        <v>138</v>
       </c>
       <c r="I58" s="30"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="13">
-        <f t="shared" si="1"/>
+        <f>ROW()-1</f>
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>121</v>
+        <v>179</v>
       </c>
       <c r="E59" s="18" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G59" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="H59" s="21" t="s">
-        <v>122</v>
+        <v>74</v>
+      </c>
+      <c r="H59" s="19" t="s">
+        <v>181</v>
       </c>
       <c r="I59" s="30"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <f t="shared" si="1"/>
+      <c r="A60" s="13">
+        <f>ROW()-1</f>
         <v>59</v>
       </c>
-      <c r="B60" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="C60" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="D60" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="E60" s="28" t="s">
-        <v>292</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>305</v>
+      <c r="B60" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C60" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="E60" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="F60" s="13" t="s">
+        <v>308</v>
       </c>
       <c r="G60" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="H60" s="21" t="s">
-        <v>112</v>
+        <v>307</v>
+      </c>
+      <c r="H60" s="19" t="s">
+        <v>134</v>
       </c>
       <c r="I60" s="30"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="13">
-        <f t="shared" si="1"/>
+        <f>ROW()-1</f>
         <v>60</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C61" s="18" t="s">
-        <v>229</v>
+      <c r="B61" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C61" s="23" t="s">
+        <v>216</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="E61" s="18" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="G61" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="H61" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="I61" s="30"/>
+        <v>67</v>
+      </c>
+      <c r="H61" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="I61" s="31" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="13">
-        <f t="shared" si="1"/>
+        <f>ROW()-1</f>
         <v>61</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C62" s="18" t="s">
-        <v>275</v>
+      <c r="B62" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C62" s="23" t="s">
+        <v>235</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>201</v>
+        <v>167</v>
       </c>
       <c r="E62" s="18" t="s">
-        <v>292</v>
-      </c>
-      <c r="F62" s="13" t="s">
-        <v>308</v>
+        <v>290</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>309</v>
       </c>
       <c r="G62" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="H62" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="I62" s="30"/>
+        <v>72</v>
+      </c>
+      <c r="H62" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="I62" s="31" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="13">
-        <f t="shared" si="1"/>
+        <f>ROW()-1</f>
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>205</v>
+        <v>92</v>
       </c>
       <c r="E63" s="18" t="s">
-        <v>292</v>
-      </c>
-      <c r="F63" s="13" t="s">
-        <v>308</v>
+        <v>290</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>310</v>
       </c>
       <c r="G63" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="H63" s="20" t="s">
-        <v>209</v>
+        <v>76</v>
+      </c>
+      <c r="H63" s="19" t="s">
+        <v>100</v>
       </c>
       <c r="I63" s="30"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="13">
-        <f t="shared" si="1"/>
+        <f>ROW()-1</f>
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="E64" s="18" t="s">
-        <v>292</v>
-      </c>
-      <c r="F64" s="13" t="s">
-        <v>308</v>
+        <v>290</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>304</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="H64" s="20" t="s">
-        <v>208</v>
+        <v>74</v>
+      </c>
+      <c r="H64" s="19" t="s">
+        <v>182</v>
       </c>
       <c r="I64" s="30"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="13">
-        <f t="shared" si="1"/>
+        <f>ROW()-1</f>
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>274</v>
+        <v>219</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>203</v>
+        <v>153</v>
       </c>
       <c r="E65" s="18" t="s">
-        <v>292</v>
-      </c>
-      <c r="F65" s="13" t="s">
-        <v>308</v>
+        <v>290</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>311</v>
       </c>
       <c r="G65" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="H65" s="20" t="s">
-        <v>210</v>
+        <v>67</v>
+      </c>
+      <c r="H65" s="19" t="s">
+        <v>162</v>
       </c>
       <c r="I65" s="30"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="13">
-        <f t="shared" ref="A66:A74" si="2">ROW()-1</f>
+        <f>ROW()-1</f>
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>87</v>
+        <v>154</v>
       </c>
       <c r="E66" s="18" t="s">
-        <v>292</v>
-      </c>
-      <c r="F66" s="13" t="s">
-        <v>308</v>
+        <v>290</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>311</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H66" s="19" t="s">
-        <v>88</v>
+        <v>163</v>
       </c>
       <c r="I66" s="30"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="13">
-        <f t="shared" si="2"/>
+        <f>ROW()-1</f>
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="E67" s="18" t="s">
-        <v>292</v>
-      </c>
-      <c r="F67" s="13" t="s">
-        <v>308</v>
+        <v>290</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>303</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="H67" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="I67" s="30"/>
+        <v>68</v>
+      </c>
+      <c r="H67" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="I67" s="29"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="13">
-        <f t="shared" si="2"/>
+        <f>ROW()-1</f>
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>85</v>
+        <v>203</v>
       </c>
       <c r="E68" s="18" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F68" s="13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="H68" s="19" t="s">
-        <v>86</v>
+        <v>305</v>
+      </c>
+      <c r="H68" s="20" t="s">
+        <v>207</v>
       </c>
       <c r="I68" s="30"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="13">
-        <f t="shared" si="2"/>
+        <f>ROW()-1</f>
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C69" s="18" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>79</v>
+        <v>200</v>
       </c>
       <c r="E69" s="18" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F69" s="13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G69" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="H69" s="19" t="s">
-        <v>80</v>
+        <v>305</v>
+      </c>
+      <c r="H69" s="20" t="s">
+        <v>206</v>
       </c>
       <c r="I69" s="30"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="13">
-        <f t="shared" si="2"/>
+        <f>ROW()-1</f>
         <v>69</v>
       </c>
-      <c r="B70" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="C70" s="23" t="s">
-        <v>247</v>
+      <c r="B70" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" s="18" t="s">
+        <v>275</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E70" s="18" t="s">
-        <v>292</v>
-      </c>
-      <c r="F70" s="13" t="s">
-        <v>308</v>
+        <v>290</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>310</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="H70" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="I70" s="31" t="s">
-        <v>212</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="I70" s="30"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="13">
-        <f t="shared" si="2"/>
+        <f>ROW()-1</f>
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C71" s="18" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>204</v>
+        <v>93</v>
       </c>
       <c r="E71" s="18" t="s">
-        <v>292</v>
-      </c>
-      <c r="F71" s="13" t="s">
-        <v>308</v>
+        <v>290</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>310</v>
       </c>
       <c r="G71" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="H71" s="20" t="s">
-        <v>207</v>
+        <v>76</v>
+      </c>
+      <c r="H71" s="19" t="s">
+        <v>101</v>
       </c>
       <c r="I71" s="30"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="13">
-        <f t="shared" si="2"/>
+        <f>ROW()-1</f>
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C72" s="18" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E72" s="18" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F72" s="13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G72" s="13" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H72" s="20" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="I72" s="30"/>
     </row>
     <row r="73" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="13">
-        <f t="shared" si="2"/>
+        <f>ROW()-1</f>
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>302</v>
+        <v>41</v>
       </c>
       <c r="C73" s="18" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>286</v>
+        <v>188</v>
       </c>
       <c r="E73" s="18" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="G73" s="13"/>
-      <c r="H73" s="19" t="s">
-        <v>295</v>
+        <v>304</v>
+      </c>
+      <c r="G73" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="H73" s="8" t="s">
+        <v>189</v>
       </c>
       <c r="I73" s="30"/>
     </row>
     <row r="74" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="13">
-        <f t="shared" si="2"/>
+        <f>ROW()-1</f>
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>301</v>
+        <v>15</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>285</v>
+        <v>243</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>284</v>
+        <v>171</v>
       </c>
       <c r="E74" s="18" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="G74" s="13"/>
+        <v>309</v>
+      </c>
+      <c r="G74" s="13" t="s">
+        <v>72</v>
+      </c>
       <c r="H74" s="19" t="s">
-        <v>296</v>
+        <v>177</v>
       </c>
       <c r="I74" s="30"/>
     </row>
@@ -3927,12 +3826,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:I72">
-    <sortState ref="A2:I71">
-      <sortCondition ref="F1:F71"/>
+    <sortState ref="A2:I74">
+      <sortCondition ref="B1:B72"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="D44" r:id="rId1"/>
+    <hyperlink ref="D36" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId2"/>
@@ -3942,1635 +3841,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G79"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4.42578125" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="10" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="32"/>
-    <col min="8" max="8" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="33.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15">
-        <f t="shared" ref="A2:A33" si="0">ROW()-1</f>
-        <v>1</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="G2" s="30"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="G3" s="30"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4" s="25" t="s">
-        <v>195</v>
-      </c>
-      <c r="G4" s="30"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="G5" s="30"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="G6" s="30"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="G7" s="30"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="G8" s="30"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="G9" s="30"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="G10" s="30"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="G11" s="30"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="G12" s="29"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="G13" s="30"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="G14" s="30"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="13">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="G15" s="30"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="G16" s="30"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="13">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="G17" s="30"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="13">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="G18" s="30"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="33">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>311</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="F19" s="35" t="s">
-        <v>174</v>
-      </c>
-      <c r="G19" s="36" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="13">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="G20" s="30"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="13">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="G21" s="30"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="13">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="G22" s="30"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="13">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="F23" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="G23" s="30"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="13">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="G24" s="30"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="13">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="F25" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="G25" s="30"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="13">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="F26" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="G26" s="30"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="13">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="F27" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="G27" s="30"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="13">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="F28" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="G28" s="30"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="13">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="G29" s="30"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="13">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="G30" s="30"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="13">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="F31" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="G31" s="30"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="13">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="F32" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="G32" s="30"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="33">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B33" s="22" t="s">
-        <v>315</v>
-      </c>
-      <c r="C33" s="34"/>
-      <c r="D33" s="33" t="s">
-        <v>310</v>
-      </c>
-      <c r="E33" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="F33" s="35"/>
-      <c r="G33" s="37"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="13">
-        <f t="shared" ref="A34:A65" si="1">ROW()-1</f>
-        <v>33</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F34" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="G34" s="30"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="13">
-        <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F35" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="G35" s="30"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="13">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F36" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="G36" s="30"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="13">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F37" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="G37" s="30"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="13">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F38" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="G38" s="30"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="13">
-        <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F39" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="G39" s="30"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="13">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F40" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="G40" s="30"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="13">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F41" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="G41" s="30"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="33">
-        <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="B42" s="22" t="s">
-        <v>316</v>
-      </c>
-      <c r="C42" s="34"/>
-      <c r="D42" s="22" t="s">
-        <v>313</v>
-      </c>
-      <c r="E42" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="F42" s="35"/>
-      <c r="G42" s="37"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="13">
-        <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C43" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="F43" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="G43" s="30"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="13">
-        <f t="shared" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C44" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="E44" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="F44" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="G44" s="30"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="13">
-        <f t="shared" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C45" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="F45" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="G45" s="30"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="13">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C46" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="E46" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="F46" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="G46" s="30"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="13">
-        <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="E47" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="F47" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="G47" s="30"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="13">
-        <f t="shared" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="E48" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="F48" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="G48" s="30"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="13">
-        <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C49" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="E49" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="F49" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="G49" s="30"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="13">
-        <f t="shared" si="1"/>
-        <v>49</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C50" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="E50" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="F50" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="G50" s="30"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="33">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="B51" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C51" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="D51" s="22" t="s">
-        <v>313</v>
-      </c>
-      <c r="E51" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="F51" s="35" t="s">
-        <v>161</v>
-      </c>
-      <c r="G51" s="36" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="33">
-        <f t="shared" si="1"/>
-        <v>51</v>
-      </c>
-      <c r="B52" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C52" s="34" t="s">
-        <v>153</v>
-      </c>
-      <c r="D52" s="22" t="s">
-        <v>313</v>
-      </c>
-      <c r="E52" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="F52" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="G52" s="36" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="13">
-        <f t="shared" si="1"/>
-        <v>52</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C53" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="E53" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F53" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="G53" s="29"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="13">
-        <f t="shared" si="1"/>
-        <v>53</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C54" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="E54" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F54" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="G54" s="29"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="13">
-        <f t="shared" si="1"/>
-        <v>54</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C55" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="E55" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="F55" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="G55" s="30"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="33">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="B56" s="22" t="s">
-        <v>317</v>
-      </c>
-      <c r="C56" s="34"/>
-      <c r="D56" s="22" t="s">
-        <v>305</v>
-      </c>
-      <c r="E56" s="33" t="s">
-        <v>314</v>
-      </c>
-      <c r="F56" s="38"/>
-      <c r="G56" s="37"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="13">
-        <f t="shared" si="1"/>
-        <v>56</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C57" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="E57" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="F57" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="G57" s="30"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="13">
-        <f t="shared" si="1"/>
-        <v>57</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C58" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="E58" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="F58" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="G58" s="30"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="13">
-        <f t="shared" si="1"/>
-        <v>58</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C59" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="E59" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="F59" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="G59" s="30"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <f t="shared" si="1"/>
-        <v>59</v>
-      </c>
-      <c r="B60" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="C60" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="E60" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="F60" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="G60" s="30"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="13">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C61" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="E61" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="F61" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="G61" s="30"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="13">
-        <f t="shared" si="1"/>
-        <v>61</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C62" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="D62" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="E62" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="F62" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="G62" s="30"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="13">
-        <f t="shared" si="1"/>
-        <v>62</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C63" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="D63" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="E63" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="F63" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="G63" s="30"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="13">
-        <f t="shared" si="1"/>
-        <v>63</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C64" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="D64" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="E64" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="F64" s="20" t="s">
-        <v>208</v>
-      </c>
-      <c r="G64" s="30"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="13">
-        <f t="shared" si="1"/>
-        <v>64</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C65" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D65" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="E65" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="F65" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="G65" s="30"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="13">
-        <f t="shared" ref="A66:A72" si="2">ROW()-1</f>
-        <v>65</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C66" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D66" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="E66" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="F66" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="G66" s="30"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="13">
-        <f t="shared" si="2"/>
-        <v>66</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C67" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D67" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="E67" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="F67" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="G67" s="30"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="13">
-        <f t="shared" si="2"/>
-        <v>67</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C68" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D68" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="E68" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="F68" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="G68" s="30"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="13">
-        <f t="shared" si="2"/>
-        <v>68</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C69" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="D69" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="E69" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="F69" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="G69" s="30"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="33">
-        <f t="shared" si="2"/>
-        <v>69</v>
-      </c>
-      <c r="B70" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="C70" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="D70" s="33" t="s">
-        <v>308</v>
-      </c>
-      <c r="E70" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="F70" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="G70" s="36" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="13">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C71" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="D71" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="E71" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="F71" s="20" t="s">
-        <v>207</v>
-      </c>
-      <c r="G71" s="30"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="13">
-        <f t="shared" si="2"/>
-        <v>71</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C72" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="D72" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="E72" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="F72" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="G72" s="30"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E73" s="4"/>
-      <c r="F73" s="9"/>
-    </row>
-    <row r="79" spans="1:7" s="32" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A79"/>
-      <c r="B79"/>
-      <c r="C79" s="6"/>
-      <c r="D79"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="11"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:G72">
-    <sortState ref="A2:I71">
-      <sortCondition ref="D1:D71"/>
-    </sortState>
-  </autoFilter>
-  <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D70"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -5581,11 +3854,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="39">
+      <c r="A1" s="33">
         <v>1</v>
       </c>
-      <c r="B1" s="40" t="s">
-        <v>333</v>
+      <c r="B1" s="34" t="s">
+        <v>326</v>
       </c>
       <c r="C1">
         <f>+A1</f>
@@ -5597,11 +3870,11 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="41">
+      <c r="A2" s="35">
         <v>2</v>
       </c>
-      <c r="B2" s="42" t="s">
-        <v>333</v>
+      <c r="B2" s="36" t="s">
+        <v>326</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:C65" si="0">+A2</f>
@@ -5613,11 +3886,11 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="41">
+      <c r="A3" s="35">
         <v>3</v>
       </c>
-      <c r="B3" s="42" t="s">
-        <v>333</v>
+      <c r="B3" s="36" t="s">
+        <v>326</v>
       </c>
       <c r="C3">
         <f t="shared" si="0"/>
@@ -5629,11 +3902,11 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="41">
+      <c r="A4" s="35">
         <v>4</v>
       </c>
-      <c r="B4" s="43" t="s">
-        <v>333</v>
+      <c r="B4" s="37" t="s">
+        <v>326</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
@@ -5645,11 +3918,11 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="41">
+      <c r="A5" s="35">
         <v>5</v>
       </c>
-      <c r="B5" s="43" t="s">
-        <v>333</v>
+      <c r="B5" s="37" t="s">
+        <v>326</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
@@ -5661,11 +3934,11 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="41">
+      <c r="A6" s="35">
         <v>6</v>
       </c>
-      <c r="B6" s="43" t="s">
-        <v>333</v>
+      <c r="B6" s="37" t="s">
+        <v>326</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
@@ -5677,11 +3950,11 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="41">
+      <c r="A7" s="35">
         <v>7</v>
       </c>
-      <c r="B7" s="42" t="s">
-        <v>333</v>
+      <c r="B7" s="36" t="s">
+        <v>326</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
@@ -5693,11 +3966,11 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="41">
+      <c r="A8" s="35">
         <v>8</v>
       </c>
-      <c r="B8" s="42" t="s">
-        <v>333</v>
+      <c r="B8" s="36" t="s">
+        <v>326</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
@@ -5709,11 +3982,11 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="41">
+      <c r="A9" s="35">
         <v>9</v>
       </c>
-      <c r="B9" s="42" t="s">
-        <v>333</v>
+      <c r="B9" s="36" t="s">
+        <v>326</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
@@ -5725,11 +3998,11 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="41">
+      <c r="A10" s="35">
         <v>10</v>
       </c>
-      <c r="B10" s="42" t="s">
-        <v>333</v>
+      <c r="B10" s="36" t="s">
+        <v>326</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
@@ -5741,11 +4014,11 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="41">
+      <c r="A11" s="35">
         <v>11</v>
       </c>
-      <c r="B11" s="42" t="s">
-        <v>333</v>
+      <c r="B11" s="36" t="s">
+        <v>326</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
@@ -5757,11 +4030,11 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="41">
+      <c r="A12" s="35">
         <v>12</v>
       </c>
-      <c r="B12" s="42" t="s">
-        <v>334</v>
+      <c r="B12" s="36" t="s">
+        <v>327</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
@@ -5773,11 +4046,11 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="41">
+      <c r="A13" s="35">
         <v>13</v>
       </c>
-      <c r="B13" s="42" t="s">
-        <v>334</v>
+      <c r="B13" s="36" t="s">
+        <v>327</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
@@ -5789,11 +4062,11 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="41">
+      <c r="A14" s="35">
         <v>14</v>
       </c>
-      <c r="B14" s="42" t="s">
-        <v>334</v>
+      <c r="B14" s="36" t="s">
+        <v>327</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
@@ -5805,11 +4078,11 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="41">
+      <c r="A15" s="35">
         <v>15</v>
       </c>
-      <c r="B15" s="42" t="s">
-        <v>334</v>
+      <c r="B15" s="36" t="s">
+        <v>327</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
@@ -5821,11 +4094,11 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="41">
+      <c r="A16" s="35">
         <v>16</v>
       </c>
-      <c r="B16" s="42" t="s">
-        <v>335</v>
+      <c r="B16" s="36" t="s">
+        <v>328</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
@@ -5837,11 +4110,11 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="41">
+      <c r="A17" s="35">
         <v>17</v>
       </c>
-      <c r="B17" s="42" t="s">
-        <v>335</v>
+      <c r="B17" s="36" t="s">
+        <v>328</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
@@ -5853,11 +4126,11 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="41">
+      <c r="A18" s="35">
         <v>18</v>
       </c>
-      <c r="B18" s="42" t="s">
-        <v>335</v>
+      <c r="B18" s="36" t="s">
+        <v>328</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
@@ -5869,11 +4142,11 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="41">
+      <c r="A19" s="35">
         <v>19</v>
       </c>
-      <c r="B19" s="42" t="s">
-        <v>335</v>
+      <c r="B19" s="36" t="s">
+        <v>328</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
@@ -5885,11 +4158,11 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="41">
+      <c r="A20" s="35">
         <v>20</v>
       </c>
-      <c r="B20" s="42" t="s">
-        <v>335</v>
+      <c r="B20" s="36" t="s">
+        <v>328</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
@@ -5901,11 +4174,11 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="41">
+      <c r="A21" s="35">
         <v>21</v>
       </c>
-      <c r="B21" s="43" t="s">
-        <v>335</v>
+      <c r="B21" s="37" t="s">
+        <v>328</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
@@ -5917,11 +4190,11 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="41">
+      <c r="A22" s="35">
         <v>22</v>
       </c>
-      <c r="B22" s="43" t="s">
-        <v>335</v>
+      <c r="B22" s="37" t="s">
+        <v>328</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
@@ -5933,11 +4206,11 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="41">
+      <c r="A23" s="35">
         <v>23</v>
       </c>
-      <c r="B23" s="43" t="s">
-        <v>335</v>
+      <c r="B23" s="37" t="s">
+        <v>328</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
@@ -5949,11 +4222,11 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="41">
+      <c r="A24" s="35">
         <v>24</v>
       </c>
-      <c r="B24" s="43" t="s">
-        <v>335</v>
+      <c r="B24" s="37" t="s">
+        <v>328</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
@@ -5965,11 +4238,11 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="41">
+      <c r="A25" s="35">
         <v>25</v>
       </c>
-      <c r="B25" s="43" t="s">
-        <v>335</v>
+      <c r="B25" s="37" t="s">
+        <v>328</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
@@ -5981,11 +4254,11 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="41">
+      <c r="A26" s="35">
         <v>26</v>
       </c>
-      <c r="B26" s="43" t="s">
-        <v>336</v>
+      <c r="B26" s="37" t="s">
+        <v>329</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
@@ -5997,11 +4270,11 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="41">
+      <c r="A27" s="35">
         <v>27</v>
       </c>
-      <c r="B27" s="43" t="s">
-        <v>336</v>
+      <c r="B27" s="37" t="s">
+        <v>329</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
@@ -6013,11 +4286,11 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="41">
+      <c r="A28" s="35">
         <v>28</v>
       </c>
-      <c r="B28" s="42" t="s">
-        <v>336</v>
+      <c r="B28" s="36" t="s">
+        <v>329</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
@@ -6029,11 +4302,11 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="41">
+      <c r="A29" s="35">
         <v>29</v>
       </c>
-      <c r="B29" s="42" t="s">
-        <v>336</v>
+      <c r="B29" s="36" t="s">
+        <v>329</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
@@ -6045,11 +4318,11 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="41">
+      <c r="A30" s="35">
         <v>30</v>
       </c>
-      <c r="B30" s="42" t="s">
-        <v>336</v>
+      <c r="B30" s="36" t="s">
+        <v>329</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
@@ -6061,11 +4334,11 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="41">
+      <c r="A31" s="35">
         <v>31</v>
       </c>
-      <c r="B31" s="42" t="s">
-        <v>336</v>
+      <c r="B31" s="36" t="s">
+        <v>329</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
@@ -6077,11 +4350,11 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="41">
+      <c r="A32" s="35">
         <v>32</v>
       </c>
-      <c r="B32" s="43" t="s">
-        <v>336</v>
+      <c r="B32" s="37" t="s">
+        <v>329</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
@@ -6093,11 +4366,11 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="41">
+      <c r="A33" s="35">
         <v>33</v>
       </c>
-      <c r="B33" s="43" t="s">
-        <v>336</v>
+      <c r="B33" s="37" t="s">
+        <v>329</v>
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
@@ -6109,11 +4382,11 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="41">
+      <c r="A34" s="35">
         <v>34</v>
       </c>
-      <c r="B34" s="43" t="s">
-        <v>336</v>
+      <c r="B34" s="37" t="s">
+        <v>329</v>
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
@@ -6125,11 +4398,11 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="41">
+      <c r="A35" s="35">
         <v>35</v>
       </c>
-      <c r="B35" s="43" t="s">
-        <v>336</v>
+      <c r="B35" s="37" t="s">
+        <v>329</v>
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
@@ -6145,7 +4418,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
@@ -6161,7 +4434,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C37">
         <f t="shared" si="0"/>
@@ -6177,7 +4450,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="C38">
         <f t="shared" si="0"/>
@@ -6193,7 +4466,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
@@ -6209,7 +4482,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
@@ -6225,7 +4498,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="C41">
         <f t="shared" si="0"/>
@@ -6241,7 +4514,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="C42">
         <f t="shared" si="0"/>
@@ -6257,7 +4530,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="C43">
         <f t="shared" si="0"/>
@@ -6273,7 +4546,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="C44">
         <f t="shared" si="0"/>
@@ -6289,7 +4562,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="C45">
         <f t="shared" si="0"/>
@@ -6305,7 +4578,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="C46">
         <f t="shared" si="0"/>
@@ -6321,7 +4594,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="C47">
         <f t="shared" si="0"/>
@@ -6337,7 +4610,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="C48">
         <f t="shared" si="0"/>
@@ -6352,8 +4625,8 @@
       <c r="A49">
         <v>49</v>
       </c>
-      <c r="B49" s="44" t="s">
-        <v>345</v>
+      <c r="B49" s="38" t="s">
+        <v>338</v>
       </c>
       <c r="C49">
         <f t="shared" si="0"/>
@@ -6370,7 +4643,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="C50">
         <f t="shared" si="0"/>
@@ -6386,7 +4659,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="C51">
         <f t="shared" si="0"/>
@@ -6402,7 +4675,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="C52">
         <f t="shared" si="0"/>
@@ -6418,7 +4691,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C53">
         <f t="shared" si="0"/>
@@ -6434,7 +4707,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C54">
         <f t="shared" si="0"/>
@@ -6450,7 +4723,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C55">
         <f t="shared" si="0"/>
@@ -6466,7 +4739,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C56">
         <f t="shared" si="0"/>
@@ -6482,7 +4755,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C57">
         <f t="shared" si="0"/>
@@ -6498,7 +4771,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C58">
         <f t="shared" si="0"/>
@@ -6514,7 +4787,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C59">
         <f t="shared" si="0"/>
@@ -6530,7 +4803,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C60">
         <f t="shared" si="0"/>
@@ -6546,7 +4819,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="C61">
         <f t="shared" si="0"/>
@@ -6562,7 +4835,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="C62">
         <f t="shared" si="0"/>
@@ -6578,7 +4851,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="C63">
         <f t="shared" si="0"/>
@@ -6594,7 +4867,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="C64">
         <f t="shared" si="0"/>
@@ -6610,7 +4883,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="C65">
         <f t="shared" si="0"/>
@@ -6626,10 +4899,10 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="C66">
-        <f t="shared" ref="C66:C100" si="3">+A66</f>
+        <f t="shared" ref="C66:C70" si="3">+A66</f>
         <v>66</v>
       </c>
       <c r="D66" t="str">
@@ -6642,7 +4915,7 @@
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="C67">
         <f t="shared" si="3"/>
@@ -6658,7 +4931,7 @@
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="C68">
         <f t="shared" si="3"/>
@@ -6674,7 +4947,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C69">
         <f t="shared" si="3"/>
@@ -6690,7 +4963,7 @@
         <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C70">
         <f t="shared" si="3"/>

--- a/userNtools.xlsx
+++ b/userNtools.xlsx
@@ -1152,7 +1152,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1175,87 +1175,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1341,23 +1266,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1727,7 +1643,7 @@
   <dimension ref="A1:I81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1776,7 +1692,7 @@
     </row>
     <row r="2" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
-        <f>ROW()-1</f>
+        <f t="shared" ref="A2:A33" si="0">ROW()-1</f>
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1804,7 +1720,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1830,7 +1746,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1858,7 +1774,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1886,7 +1802,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1914,7 +1830,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1942,7 +1858,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1970,7 +1886,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1998,7 +1914,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -2026,7 +1942,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -2052,7 +1968,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -2080,7 +1996,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -2108,7 +2024,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -2136,7 +2052,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -2164,7 +2080,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -2192,7 +2108,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" s="22" t="s">
@@ -2222,7 +2138,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -2250,7 +2166,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" s="15" t="s">
@@ -2278,7 +2194,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -2306,7 +2222,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -2334,7 +2250,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -2360,7 +2276,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -2388,7 +2304,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -2416,7 +2332,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -2444,7 +2360,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -2472,7 +2388,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -2500,7 +2416,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -2526,7 +2442,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -2554,7 +2470,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -2582,7 +2498,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -2610,7 +2526,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -2638,7 +2554,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -2666,7 +2582,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="13">
-        <f>ROW()-1</f>
+        <f t="shared" ref="A34:A65" si="1">ROW()-1</f>
         <v>33</v>
       </c>
       <c r="B34" s="26" t="s">
@@ -2694,7 +2610,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -2722,7 +2638,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -2750,7 +2666,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -2778,7 +2694,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="13">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="B38" s="22" t="s">
@@ -2808,7 +2724,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -2836,7 +2752,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="13">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -2864,7 +2780,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="13">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -2892,7 +2808,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="13">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -2920,7 +2836,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="13">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -2948,7 +2864,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="13">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -2974,7 +2890,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="13">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -3002,7 +2918,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="15">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="B46" s="15" t="s">
@@ -3030,7 +2946,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="13">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -3058,7 +2974,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="B48" s="27" t="s">
@@ -3086,7 +3002,7 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="13">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -3114,7 +3030,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="13">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -3142,7 +3058,7 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="13">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -3170,7 +3086,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="13">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
@@ -3198,7 +3114,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="13">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -3226,7 +3142,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="15">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="B54" s="15" t="s">
@@ -3254,7 +3170,7 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="13">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
@@ -3282,7 +3198,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="13">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
@@ -3310,7 +3226,7 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="13">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -3338,7 +3254,7 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="13">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
@@ -3366,7 +3282,7 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="13">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
@@ -3394,7 +3310,7 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="13">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
@@ -3422,7 +3338,7 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="13">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="B61" s="22" t="s">
@@ -3452,7 +3368,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="13">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
       <c r="B62" s="22" t="s">
@@ -3482,7 +3398,7 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="13">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
@@ -3510,7 +3426,7 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="13">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
@@ -3538,7 +3454,7 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="13">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
@@ -3566,7 +3482,7 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="13">
-        <f>ROW()-1</f>
+        <f t="shared" ref="A66:A74" si="2">ROW()-1</f>
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
@@ -3594,7 +3510,7 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="13">
-        <f>ROW()-1</f>
+        <f t="shared" si="2"/>
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
@@ -3622,7 +3538,7 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="13">
-        <f>ROW()-1</f>
+        <f t="shared" si="2"/>
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
@@ -3650,7 +3566,7 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="13">
-        <f>ROW()-1</f>
+        <f t="shared" si="2"/>
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
@@ -3678,7 +3594,7 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="13">
-        <f>ROW()-1</f>
+        <f t="shared" si="2"/>
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
@@ -3706,7 +3622,7 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="13">
-        <f>ROW()-1</f>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
@@ -3734,7 +3650,7 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="13">
-        <f>ROW()-1</f>
+        <f t="shared" si="2"/>
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
@@ -3762,7 +3678,7 @@
     </row>
     <row r="73" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="13">
-        <f>ROW()-1</f>
+        <f t="shared" si="2"/>
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
@@ -3790,7 +3706,7 @@
     </row>
     <row r="74" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="13">
-        <f>ROW()-1</f>
+        <f t="shared" si="2"/>
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
@@ -3843,17 +3759,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="7.140625" customWidth="1"/>
     <col min="2" max="2" width="76.140625" customWidth="1"/>
     <col min="4" max="4" width="52.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="33">
         <v>1</v>
       </c>
@@ -3869,11 +3786,11 @@
         <v>Chuyên đề 1: Lịch sử tín ngưỡng và tôn giáo ở Việt Nam (t1)</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="33">
         <v>2</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="34" t="s">
         <v>326</v>
       </c>
       <c r="C2">
@@ -3885,11 +3802,11 @@
         <v>Chuyên đề 1: Lịch sử tín ngưỡng và tôn giáo ở Việt Nam (t2)</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="35">
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="33">
         <v>3</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="34" t="s">
         <v>326</v>
       </c>
       <c r="C3">
@@ -3901,11 +3818,11 @@
         <v>Chuyên đề 1: Lịch sử tín ngưỡng và tôn giáo ở Việt Nam (t3)</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="35">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="33">
         <v>4</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="35" t="s">
         <v>326</v>
       </c>
       <c r="C4">
@@ -3917,11 +3834,11 @@
         <v>Chuyên đề 1: Lịch sử tín ngưỡng và tôn giáo ở Việt Nam (t4)</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="35">
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="33">
         <v>5</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="35" t="s">
         <v>326</v>
       </c>
       <c r="C5">
@@ -3933,11 +3850,11 @@
         <v>Chuyên đề 1: Lịch sử tín ngưỡng và tôn giáo ở Việt Nam (t5)</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="35">
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="33">
         <v>6</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="35" t="s">
         <v>326</v>
       </c>
       <c r="C6">
@@ -3949,11 +3866,11 @@
         <v>Chuyên đề 1: Lịch sử tín ngưỡng và tôn giáo ở Việt Nam (t6)</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="35">
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="33">
         <v>7</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="34" t="s">
         <v>326</v>
       </c>
       <c r="C7">
@@ -3965,11 +3882,11 @@
         <v>Chuyên đề 1: Lịch sử tín ngưỡng và tôn giáo ở Việt Nam (t7)</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="35">
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="33">
         <v>8</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="34" t="s">
         <v>326</v>
       </c>
       <c r="C8">
@@ -3981,11 +3898,11 @@
         <v>Chuyên đề 1: Lịch sử tín ngưỡng và tôn giáo ở Việt Nam (t8)</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="35">
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="33">
         <v>9</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="34" t="s">
         <v>326</v>
       </c>
       <c r="C9">
@@ -3997,11 +3914,11 @@
         <v>Chuyên đề 1: Lịch sử tín ngưỡng và tôn giáo ở Việt Nam (t9)</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="35">
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="33">
         <v>10</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="34" t="s">
         <v>326</v>
       </c>
       <c r="C10">
@@ -4013,11 +3930,11 @@
         <v>Chuyên đề 1: Lịch sử tín ngưỡng và tôn giáo ở Việt Nam (t10)</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="35">
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="33">
         <v>11</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="34" t="s">
         <v>326</v>
       </c>
       <c r="C11">
@@ -4029,11 +3946,11 @@
         <v>Chuyên đề 1: Lịch sử tín ngưỡng và tôn giáo ở Việt Nam (t11)</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="35">
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="33">
         <v>12</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="34" t="s">
         <v>327</v>
       </c>
       <c r="C12">
@@ -4045,11 +3962,11 @@
         <v>Chuyên đề 1: Thực hành trải nghiệm tại các cơ sở tôn giáo (t1)</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="35">
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="33">
         <v>13</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="34" t="s">
         <v>327</v>
       </c>
       <c r="C13">
@@ -4061,11 +3978,11 @@
         <v>Chuyên đề 1: Thực hành trải nghiệm tại các cơ sở tôn giáo (t2)</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="35">
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="33">
         <v>14</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="34" t="s">
         <v>327</v>
       </c>
       <c r="C14">
@@ -4077,11 +3994,11 @@
         <v>Chuyên đề 1: Thực hành trải nghiệm tại các cơ sở tôn giáo (t3)</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="35">
+    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="33">
         <v>15</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="34" t="s">
         <v>327</v>
       </c>
       <c r="C15">
@@ -4093,11 +4010,11 @@
         <v>Chuyên đề 1: Thực hành trải nghiệm tại các cơ sở tôn giáo (t4)</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="35">
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="33">
         <v>16</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="34" t="s">
         <v>328</v>
       </c>
       <c r="C16">
@@ -4109,11 +4026,11 @@
         <v>Chuyên đề 2: Nhật Bản hành trình lịch sử từ năm 1945 đến nay (t1)</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="35">
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="33">
         <v>17</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="34" t="s">
         <v>328</v>
       </c>
       <c r="C17">
@@ -4125,11 +4042,11 @@
         <v>Chuyên đề 2: Nhật Bản hành trình lịch sử từ năm 1945 đến nay (t2)</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="35">
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="33">
         <v>18</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="34" t="s">
         <v>328</v>
       </c>
       <c r="C18">
@@ -4141,11 +4058,11 @@
         <v>Chuyên đề 2: Nhật Bản hành trình lịch sử từ năm 1945 đến nay (t3)</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="35">
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="33">
         <v>19</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="34" t="s">
         <v>328</v>
       </c>
       <c r="C19">
@@ -4157,11 +4074,11 @@
         <v>Chuyên đề 2: Nhật Bản hành trình lịch sử từ năm 1945 đến nay (t4)</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="35">
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="33">
         <v>20</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="34" t="s">
         <v>328</v>
       </c>
       <c r="C20">
@@ -4173,11 +4090,11 @@
         <v>Chuyên đề 2: Nhật Bản hành trình lịch sử từ năm 1945 đến nay (t5)</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="35">
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="33">
         <v>21</v>
       </c>
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="35" t="s">
         <v>328</v>
       </c>
       <c r="C21">
@@ -4189,11 +4106,11 @@
         <v>Chuyên đề 2: Nhật Bản hành trình lịch sử từ năm 1945 đến nay (t6)</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="35">
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="33">
         <v>22</v>
       </c>
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="35" t="s">
         <v>328</v>
       </c>
       <c r="C22">
@@ -4205,11 +4122,11 @@
         <v>Chuyên đề 2: Nhật Bản hành trình lịch sử từ năm 1945 đến nay (t7)</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="35">
+    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="33">
         <v>23</v>
       </c>
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="35" t="s">
         <v>328</v>
       </c>
       <c r="C23">
@@ -4221,11 +4138,11 @@
         <v>Chuyên đề 2: Nhật Bản hành trình lịch sử từ năm 1945 đến nay (t8)</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="35">
+    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="33">
         <v>24</v>
       </c>
-      <c r="B24" s="37" t="s">
+      <c r="B24" s="35" t="s">
         <v>328</v>
       </c>
       <c r="C24">
@@ -4237,11 +4154,11 @@
         <v>Chuyên đề 2: Nhật Bản hành trình lịch sử từ năm 1945 đến nay (t9)</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="35">
+    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="33">
         <v>25</v>
       </c>
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="35" t="s">
         <v>328</v>
       </c>
       <c r="C25">
@@ -4253,11 +4170,11 @@
         <v>Chuyên đề 2: Nhật Bản hành trình lịch sử từ năm 1945 đến nay (t10)</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="35">
+    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="33">
         <v>26</v>
       </c>
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="35" t="s">
         <v>329</v>
       </c>
       <c r="C26">
@@ -4269,11 +4186,11 @@
         <v>Chuyên đề 3: Quá trình hội nhập quốc tế của Việt Nam (t1)</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="35">
+    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="33">
         <v>27</v>
       </c>
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="35" t="s">
         <v>329</v>
       </c>
       <c r="C27">
@@ -4285,11 +4202,11 @@
         <v>Chuyên đề 3: Quá trình hội nhập quốc tế của Việt Nam (t2)</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="35">
+    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="33">
         <v>28</v>
       </c>
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="34" t="s">
         <v>329</v>
       </c>
       <c r="C28">
@@ -4301,11 +4218,11 @@
         <v>Chuyên đề 3: Quá trình hội nhập quốc tế của Việt Nam (t3)</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="35">
+    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="33">
         <v>29</v>
       </c>
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="34" t="s">
         <v>329</v>
       </c>
       <c r="C29">
@@ -4317,11 +4234,11 @@
         <v>Chuyên đề 3: Quá trình hội nhập quốc tế của Việt Nam (t4)</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="35">
+    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="33">
         <v>30</v>
       </c>
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="34" t="s">
         <v>329</v>
       </c>
       <c r="C30">
@@ -4333,11 +4250,11 @@
         <v>Chuyên đề 3: Quá trình hội nhập quốc tế của Việt Nam (t5)</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="35">
+    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="33">
         <v>31</v>
       </c>
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="34" t="s">
         <v>329</v>
       </c>
       <c r="C31">
@@ -4349,11 +4266,11 @@
         <v>Chuyên đề 3: Quá trình hội nhập quốc tế của Việt Nam (t6)</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="35">
+    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="33">
         <v>32</v>
       </c>
-      <c r="B32" s="37" t="s">
+      <c r="B32" s="35" t="s">
         <v>329</v>
       </c>
       <c r="C32">
@@ -4365,11 +4282,11 @@
         <v>Chuyên đề 3: Quá trình hội nhập quốc tế của Việt Nam (t7)</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="35">
+    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="33">
         <v>33</v>
       </c>
-      <c r="B33" s="37" t="s">
+      <c r="B33" s="35" t="s">
         <v>329</v>
       </c>
       <c r="C33">
@@ -4381,11 +4298,11 @@
         <v>Chuyên đề 3: Quá trình hội nhập quốc tế của Việt Nam (t8)</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="35">
+    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="33">
         <v>34</v>
       </c>
-      <c r="B34" s="37" t="s">
+      <c r="B34" s="35" t="s">
         <v>329</v>
       </c>
       <c r="C34">
@@ -4397,11 +4314,11 @@
         <v>Chuyên đề 3: Quá trình hội nhập quốc tế của Việt Nam (t9)</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="35">
+    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="33">
         <v>35</v>
       </c>
-      <c r="B35" s="37" t="s">
+      <c r="B35" s="35" t="s">
         <v>329</v>
       </c>
       <c r="C35">
@@ -4413,11 +4330,11 @@
         <v>Chuyên đề 3: Quá trình hội nhập quốc tế của Việt Nam (t10)</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36">
+    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="33">
         <v>36</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="35" t="s">
         <v>330</v>
       </c>
       <c r="C36">
@@ -4429,11 +4346,11 @@
         <v>Bài 12: Hoạt động đối ngoại của Việt Nam trong đấu tranh giành độc lập dân tộc (đầu thế kỉ XX đến Cách mạng tháng Tám (t1)</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37">
+    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="33">
         <v>37</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="35" t="s">
         <v>330</v>
       </c>
       <c r="C37">
@@ -4445,11 +4362,11 @@
         <v>Bài 12: Hoạt động đối ngoại của Việt Nam trong đấu tranh giành độc lập dân tộc (đầu thế kỉ XX đến Cách mạng tháng Tám (t2)</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38">
+    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="33">
         <v>38</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="35" t="s">
         <v>331</v>
       </c>
       <c r="C38">
@@ -4461,11 +4378,11 @@
         <v>Bài 13: Hoạt động đối ngoại của Việt Nam trong kháng chiến chống Pháp (1945 – 1954) và chỗng Mĩ (1954-1975)-</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39">
+    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="33">
         <v>39</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="35" t="s">
         <v>332</v>
       </c>
       <c r="C39">
@@ -4477,11 +4394,11 @@
         <v>Bài 13: Hoạt động đối ngoại của Việt Nam trong kháng chiến chống Pháp (1945 – 1954) và chỗng Mĩ (1954-1975</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40">
+    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="33">
         <v>40</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="35" t="s">
         <v>333</v>
       </c>
       <c r="C40">
@@ -4493,11 +4410,11 @@
         <v>Bài 14: Hoạt động đối ngoại của Việt Nam từ 1975 đến nay</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41">
+    <row r="41" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="33">
         <v>41</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="35" t="s">
         <v>334</v>
       </c>
       <c r="C41">
@@ -4509,11 +4426,11 @@
         <v>Ôn tập kiểm tra giữa kì 2</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42">
+    <row r="42" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="33">
         <v>42</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="35" t="s">
         <v>335</v>
       </c>
       <c r="C42">
@@ -4525,11 +4442,11 @@
         <v>Kiểm tra giữa kì 2</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43">
+    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="33">
         <v>43</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="35" t="s">
         <v>336</v>
       </c>
       <c r="C43">
@@ -4541,11 +4458,11 @@
         <v>Bài 15: Khái quát về cuộc đời và sự nghiệp của Hồ Chí Minh (t1)</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44">
+    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="33">
         <v>44</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="35" t="s">
         <v>336</v>
       </c>
       <c r="C44">
@@ -4557,11 +4474,11 @@
         <v>Bài 15: Khái quát về cuộc đời và sự nghiệp của Hồ Chí Minh (t2)</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45">
+    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="33">
         <v>45</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="35" t="s">
         <v>337</v>
       </c>
       <c r="C45">
@@ -4573,11 +4490,11 @@
         <v>Bài 16: Hồ Chí Minh - Anh hùng giải phóng dân tộc (t1)</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46">
+    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="33">
         <v>46</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="35" t="s">
         <v>337</v>
       </c>
       <c r="C46">
@@ -4589,11 +4506,11 @@
         <v>Bài 16: Hồ Chí Minh - Anh hùng giải phóng dân tộc (t2)</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47">
+    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="33">
         <v>47</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="35" t="s">
         <v>337</v>
       </c>
       <c r="C47">
@@ -4605,11 +4522,11 @@
         <v>Bài 16: Hồ Chí Minh - Anh hùng giải phóng dân tộc (t3)</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48">
+    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="33">
         <v>48</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="35" t="s">
         <v>337</v>
       </c>
       <c r="C48">
@@ -4621,11 +4538,11 @@
         <v>Bài 16: Hồ Chí Minh - Anh hùng giải phóng dân tộc (t4)</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A49">
+    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="33">
         <v>49</v>
       </c>
-      <c r="B49" s="38" t="s">
+      <c r="B49" s="35" t="s">
         <v>338</v>
       </c>
       <c r="C49">
@@ -4638,11 +4555,11 @@
 </v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50">
+    <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="33">
         <v>50</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="35" t="s">
         <v>339</v>
       </c>
       <c r="C50">
@@ -4654,11 +4571,11 @@
         <v>Thực hành chủ đề 6</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51">
+    <row r="51" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="33">
         <v>51</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="35" t="s">
         <v>340</v>
       </c>
       <c r="C51">
@@ -4670,11 +4587,11 @@
         <v>Ôn tập kiểm tra cuối kì 2</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52">
+    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="33">
         <v>52</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="35" t="s">
         <v>341</v>
       </c>
       <c r="C52">
@@ -4686,11 +4603,11 @@
         <v>Kiểm tra học kì II</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53">
+    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="33">
         <v>53</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="35" t="s">
         <v>342</v>
       </c>
       <c r="C53">
@@ -4702,11 +4619,11 @@
         <v>Bài 25. Sinh trưởng và sinh sản ở vi sinh vật (t1)</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54">
+    <row r="54" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="33">
         <v>54</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="35" t="s">
         <v>342</v>
       </c>
       <c r="C54">
@@ -4718,11 +4635,11 @@
         <v>Bài 25. Sinh trưởng và sinh sản ở vi sinh vật (t2)</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55">
+    <row r="55" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="33">
         <v>55</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="35" t="s">
         <v>343</v>
       </c>
       <c r="C55">
@@ -4734,11 +4651,11 @@
         <v>Bài 26. Công nghệ vi sinh vật (t1)</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56">
+    <row r="56" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="33">
         <v>56</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="35" t="s">
         <v>343</v>
       </c>
       <c r="C56">
@@ -4750,11 +4667,11 @@
         <v>Bài 26. Công nghệ vi sinh vật (t2)</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57">
+    <row r="57" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="33">
         <v>57</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="35" t="s">
         <v>344</v>
       </c>
       <c r="C57">
@@ -4766,11 +4683,11 @@
         <v>Chủ đề STEM:Ứng dụng vi sinh vật trong thực tiễn (t1)</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58">
+    <row r="58" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="33">
         <v>58</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="35" t="s">
         <v>344</v>
       </c>
       <c r="C58">
@@ -4782,11 +4699,11 @@
         <v>Chủ đề STEM:Ứng dụng vi sinh vật trong thực tiễn (t2)</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59">
+    <row r="59" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="33">
         <v>59</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="35" t="s">
         <v>344</v>
       </c>
       <c r="C59">
@@ -4798,11 +4715,11 @@
         <v>Chủ đề STEM:Ứng dụng vi sinh vật trong thực tiễn (t3)</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60">
+    <row r="60" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="33">
         <v>60</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="35" t="s">
         <v>345</v>
       </c>
       <c r="C60">
@@ -4814,11 +4731,11 @@
         <v>Ôn tập chương V</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61">
+    <row r="61" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="33">
         <v>61</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="35" t="s">
         <v>346</v>
       </c>
       <c r="C61">
@@ -4830,11 +4747,11 @@
         <v>Bài 29. Virus (t1)</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62">
+    <row r="62" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="33">
         <v>62</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="35" t="s">
         <v>346</v>
       </c>
       <c r="C62">
@@ -4846,11 +4763,11 @@
         <v>Bài 29. Virus (t2)</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63">
+    <row r="63" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="33">
         <v>63</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="35" t="s">
         <v>347</v>
       </c>
       <c r="C63">
@@ -4862,11 +4779,11 @@
         <v>Bài 30. Ứng dụng của virus trong y học và thực tiễn (t1)</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64">
+    <row r="64" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="33">
         <v>64</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="35" t="s">
         <v>347</v>
       </c>
       <c r="C64">
@@ -4878,11 +4795,11 @@
         <v>Bài 30. Ứng dụng của virus trong y học và thực tiễn (t2)</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65">
+    <row r="65" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="33">
         <v>65</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="35" t="s">
         <v>348</v>
       </c>
       <c r="C65">
@@ -4894,11 +4811,11 @@
         <v>Bài 31. Virus gây bệnh (t1)</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66">
+    <row r="66" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="33">
         <v>66</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="35" t="s">
         <v>348</v>
       </c>
       <c r="C66">
@@ -4910,11 +4827,11 @@
         <v>Bài 31. Virus gây bệnh (t2)</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67">
+    <row r="67" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="33">
         <v>67</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="35" t="s">
         <v>348</v>
       </c>
       <c r="C67">
@@ -4926,11 +4843,11 @@
         <v>Bài 31. Virus gây bệnh (t3)</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68">
+    <row r="68" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="33">
         <v>68</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="35" t="s">
         <v>349</v>
       </c>
       <c r="C68">
@@ -4942,11 +4859,11 @@
         <v>Ôn tập chương VI</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69">
+    <row r="69" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="33">
         <v>69</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="35" t="s">
         <v>350</v>
       </c>
       <c r="C69">
@@ -4958,11 +4875,11 @@
         <v>Ôn tập cuối học kì II</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70">
+    <row r="70" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="33">
         <v>70</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="35" t="s">
         <v>351</v>
       </c>
       <c r="C70">

--- a/userNtools.xlsx
+++ b/userNtools.xlsx
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">list!$A$1:$I$72</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -1085,7 +1085,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1299,13 +1299,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1642,8 +1642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1692,71 +1692,73 @@
     </row>
     <row r="2" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
-        <f t="shared" ref="A2:A33" si="0">ROW()-1</f>
+        <f>ROW()-1</f>
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="F2" s="13" t="s">
-        <v>308</v>
+      <c r="F2" s="2" t="s">
+        <v>303</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="I2" s="30"/>
+        <v>68</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="I2" s="29"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>314</v>
+        <v>37</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>321</v>
+        <v>229</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>320</v>
+        <v>123</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>290</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="30"/>
+        <v>68</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="I3" s="29"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>239</v>
+        <v>325</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>169</v>
+        <v>324</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>290</v>
@@ -1765,248 +1767,250 @@
         <v>309</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="I4" s="30"/>
+        <v>147</v>
+      </c>
+      <c r="I4" s="29"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>95</v>
+        <v>190</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>290</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>103</v>
+        <v>75</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="I5" s="30"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>279</v>
+      <c r="B6" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>262</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>94</v>
+        <v>186</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>290</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>102</v>
+        <v>75</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>187</v>
       </c>
       <c r="I6" s="30"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>254</v>
+        <v>188</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>308</v>
+      <c r="F7" s="2" t="s">
+        <v>304</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>137</v>
+        <v>75</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>189</v>
       </c>
       <c r="I7" s="30"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>89</v>
+        <v>169</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>290</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>97</v>
+        <v>174</v>
       </c>
       <c r="I8" s="30"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>87</v>
+        <v>236</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="F9" s="13" t="s">
-        <v>306</v>
+      <c r="F9" s="2" t="s">
+        <v>309</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>88</v>
+        <v>178</v>
       </c>
       <c r="I9" s="30"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="F10" s="13" t="s">
-        <v>306</v>
+      <c r="F10" s="2" t="s">
+        <v>309</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="H10" s="20" t="s">
-        <v>205</v>
+        <v>72</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>176</v>
       </c>
       <c r="I10" s="30"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>315</v>
+        <v>13</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>317</v>
+        <v>241</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>316</v>
+        <v>240</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>290</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="H11" s="21"/>
+        <v>72</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>175</v>
+      </c>
       <c r="I11" s="30"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="F12" s="13" t="s">
-        <v>306</v>
+      <c r="F12" s="2" t="s">
+        <v>309</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="H12" s="20" t="s">
-        <v>204</v>
+        <v>72</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>173</v>
       </c>
       <c r="I12" s="30"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>237</v>
+      <c r="B13" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>235</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>236</v>
+        <v>167</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>290</v>
@@ -2018,23 +2022,25 @@
         <v>72</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="I13" s="30"/>
+        <v>172</v>
+      </c>
+      <c r="I13" s="31" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>290</v>
@@ -2046,99 +2052,97 @@
         <v>72</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I14" s="30"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>226</v>
+        <v>267</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>303</v>
+      <c r="F15" s="13" t="s">
+        <v>308</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="H15" s="21" t="s">
-        <v>118</v>
+        <v>307</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>136</v>
       </c>
       <c r="I15" s="30"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>240</v>
+        <v>132</v>
       </c>
       <c r="E16" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>309</v>
+      <c r="F16" s="13" t="s">
+        <v>308</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>72</v>
+        <v>307</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="I16" s="30"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>16</v>
       </c>
-      <c r="B17" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>218</v>
+      <c r="B17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>265</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>311</v>
+      <c r="F17" s="13" t="s">
+        <v>308</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>67</v>
+        <v>307</v>
       </c>
       <c r="H17" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="I17" s="31" t="s">
-        <v>210</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="I17" s="30"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -2166,7 +2170,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>18</v>
       </c>
       <c r="B19" s="15" t="s">
@@ -2194,45 +2198,45 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="F20" s="13" t="s">
-        <v>308</v>
+      <c r="F20" s="2" t="s">
+        <v>304</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H20" s="19" t="s">
-        <v>142</v>
+        <v>183</v>
       </c>
       <c r="I20" s="30"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>260</v>
+        <v>179</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>290</v>
@@ -2244,189 +2248,189 @@
         <v>74</v>
       </c>
       <c r="H21" s="19" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I21" s="30"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>299</v>
+        <v>52</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>282</v>
+        <v>180</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="G22" s="13"/>
+        <v>304</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>74</v>
+      </c>
       <c r="H22" s="19" t="s">
-        <v>294</v>
+        <v>182</v>
       </c>
       <c r="I22" s="30"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>168</v>
+        <v>108</v>
       </c>
       <c r="E23" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>309</v>
+      <c r="F23" s="13" t="s">
+        <v>308</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H23" s="19" t="s">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="I23" s="30"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>96</v>
+        <v>254</v>
       </c>
       <c r="E24" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>310</v>
+      <c r="F24" s="13" t="s">
+        <v>308</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H24" s="19" t="s">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="I24" s="30"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>129</v>
+        <v>252</v>
       </c>
       <c r="E25" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>309</v>
+      <c r="F25" s="13" t="s">
+        <v>308</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H25" s="19" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I25" s="30"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>6</v>
+        <v>313</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>264</v>
+        <v>319</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>190</v>
+        <v>318</v>
       </c>
       <c r="E26" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>304</v>
+      <c r="F26" s="13" t="s">
+        <v>308</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>191</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="H26" s="19"/>
       <c r="I26" s="30"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="E27" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>310</v>
+      <c r="F27" s="13" t="s">
+        <v>308</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H27" s="19" t="s">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="I27" s="30"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>313</v>
+        <v>21</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>319</v>
+        <v>249</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>318</v>
+        <v>107</v>
       </c>
       <c r="E28" s="18" t="s">
         <v>290</v>
@@ -2437,134 +2441,136 @@
       <c r="G28" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="H28" s="19"/>
+      <c r="H28" s="19" t="s">
+        <v>141</v>
+      </c>
       <c r="I28" s="30"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="13">
-        <f t="shared" si="0"/>
+      <c r="A29" s="15">
+        <f>ROW()-1</f>
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>234</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="E29" s="18" t="s">
-        <v>290</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="G29" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="H29" s="19" t="s">
-        <v>146</v>
+      <c r="B29" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="H29" s="25" t="s">
+        <v>193</v>
       </c>
       <c r="I29" s="30"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="13">
-        <f t="shared" si="0"/>
+      <c r="A30" s="15">
+        <f>ROW()-1</f>
         <v>29</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>217</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="E30" s="18" t="s">
-        <v>290</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="G30" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="H30" s="19" t="s">
-        <v>160</v>
+      <c r="B30" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="H30" s="25" t="s">
+        <v>195</v>
       </c>
       <c r="I30" s="30"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>224</v>
+        <v>256</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E31" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>303</v>
+      <c r="F31" s="13" t="s">
+        <v>308</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="H31" s="21" t="s">
-        <v>114</v>
+        <v>73</v>
+      </c>
+      <c r="H31" s="19" t="s">
+        <v>138</v>
       </c>
       <c r="I31" s="30"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>267</v>
+        <v>233</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E32" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="F32" s="13" t="s">
-        <v>308</v>
+      <c r="F32" s="2" t="s">
+        <v>309</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>307</v>
+        <v>69</v>
       </c>
       <c r="H32" s="19" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="I32" s="30"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>325</v>
+        <v>234</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>324</v>
+        <v>130</v>
       </c>
       <c r="E33" s="18" t="s">
         <v>290</v>
@@ -2573,138 +2579,138 @@
         <v>309</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H33" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="I33" s="29"/>
+        <v>146</v>
+      </c>
+      <c r="I33" s="30"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="13">
-        <f t="shared" ref="A34:A65" si="1">ROW()-1</f>
+        <f>ROW()-1</f>
         <v>33</v>
       </c>
-      <c r="B34" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="24" t="s">
-        <v>262</v>
+      <c r="B34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>231</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>186</v>
+        <v>127</v>
       </c>
       <c r="E34" s="18" t="s">
         <v>290</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="H34" s="8" t="s">
-        <v>187</v>
+        <v>69</v>
+      </c>
+      <c r="H34" s="19" t="s">
+        <v>143</v>
       </c>
       <c r="I34" s="30"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
-        <f t="shared" si="1"/>
+        <f>ROW()-1</f>
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E35" s="18" t="s">
         <v>290</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H35" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="I35" s="29"/>
+        <v>69</v>
+      </c>
+      <c r="H35" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="I35" s="30"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
-        <f t="shared" si="1"/>
+        <f>ROW()-1</f>
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>323</v>
+        <v>269</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>322</v>
+        <v>202</v>
       </c>
       <c r="E36" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="F36" s="2" t="s">
-        <v>311</v>
+      <c r="F36" s="13" t="s">
+        <v>306</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="H36" s="19" t="s">
-        <v>165</v>
+        <v>305</v>
+      </c>
+      <c r="H36" s="20" t="s">
+        <v>205</v>
       </c>
       <c r="I36" s="30"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
-        <f t="shared" si="1"/>
+        <f>ROW()-1</f>
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>132</v>
+        <v>198</v>
       </c>
       <c r="E37" s="18" t="s">
         <v>290</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="H37" s="19" t="s">
-        <v>135</v>
+        <v>305</v>
+      </c>
+      <c r="H37" s="20" t="s">
+        <v>204</v>
       </c>
       <c r="I37" s="30"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="13">
-        <f t="shared" si="1"/>
+        <f>ROW()-1</f>
         <v>37</v>
       </c>
-      <c r="B38" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="C38" s="23" t="s">
-        <v>245</v>
+      <c r="B38" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>273</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>81</v>
+        <v>199</v>
       </c>
       <c r="E38" s="18" t="s">
         <v>290</v>
@@ -2713,28 +2719,26 @@
         <v>306</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="H38" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="I38" s="31" t="s">
-        <v>210</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="H38" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="I38" s="30"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
-        <f t="shared" si="1"/>
+        <f>ROW()-1</f>
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>83</v>
+        <v>203</v>
       </c>
       <c r="E39" s="18" t="s">
         <v>290</v>
@@ -2743,500 +2747,504 @@
         <v>306</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="H39" s="19" t="s">
-        <v>84</v>
+        <v>305</v>
+      </c>
+      <c r="H39" s="20" t="s">
+        <v>207</v>
       </c>
       <c r="I39" s="30"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="13">
-        <f t="shared" si="1"/>
+        <f>ROW()-1</f>
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>231</v>
+        <v>270</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>127</v>
+        <v>200</v>
       </c>
       <c r="E40" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="F40" s="2" t="s">
-        <v>309</v>
+      <c r="F40" s="13" t="s">
+        <v>306</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="H40" s="19" t="s">
-        <v>143</v>
+        <v>305</v>
+      </c>
+      <c r="H40" s="20" t="s">
+        <v>206</v>
       </c>
       <c r="I40" s="30"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="13">
-        <f t="shared" si="1"/>
+        <f>ROW()-1</f>
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>106</v>
+        <v>33</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>225</v>
+        <v>272</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>115</v>
+        <v>201</v>
       </c>
       <c r="E41" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>303</v>
+      <c r="F41" s="13" t="s">
+        <v>306</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="H41" s="21" t="s">
-        <v>116</v>
+        <v>305</v>
+      </c>
+      <c r="H41" s="20" t="s">
+        <v>208</v>
       </c>
       <c r="I41" s="30"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="13">
-        <f t="shared" si="1"/>
+        <f>ROW()-1</f>
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>251</v>
+        <v>280</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E42" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="F42" s="13" t="s">
-        <v>308</v>
+      <c r="F42" s="2" t="s">
+        <v>310</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H42" s="19" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="I42" s="30"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="13">
-        <f t="shared" si="1"/>
+        <f>ROW()-1</f>
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="E43" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="F43" s="13" t="s">
-        <v>308</v>
+      <c r="F43" s="2" t="s">
+        <v>310</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H43" s="19" t="s">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="I43" s="30"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="13">
-        <f t="shared" si="1"/>
+        <f>ROW()-1</f>
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>300</v>
+        <v>31</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>284</v>
+        <v>89</v>
       </c>
       <c r="E44" s="18" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="G44" s="13"/>
+        <v>310</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>76</v>
+      </c>
       <c r="H44" s="19" t="s">
-        <v>293</v>
+        <v>97</v>
       </c>
       <c r="I44" s="30"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="13">
-        <f t="shared" si="1"/>
+        <f>ROW()-1</f>
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>228</v>
+        <v>281</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="E45" s="18" t="s">
         <v>290</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="H45" s="21" t="s">
-        <v>122</v>
+        <v>76</v>
+      </c>
+      <c r="H45" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="I45" s="30"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="15">
-        <f t="shared" si="1"/>
+      <c r="A46" s="13">
+        <f>ROW()-1</f>
         <v>45</v>
       </c>
-      <c r="B46" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C46" s="24" t="s">
-        <v>213</v>
-      </c>
-      <c r="D46" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="E46" s="24" t="s">
-        <v>295</v>
-      </c>
-      <c r="F46" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="G46" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="H46" s="25" t="s">
-        <v>193</v>
+      <c r="B46" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E46" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="H46" s="19" t="s">
+        <v>99</v>
       </c>
       <c r="I46" s="30"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="13">
-        <f t="shared" si="1"/>
+        <f>ROW()-1</f>
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>199</v>
+        <v>92</v>
       </c>
       <c r="E47" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="F47" s="13" t="s">
-        <v>306</v>
+      <c r="F47" s="2" t="s">
+        <v>310</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="H47" s="20" t="s">
-        <v>209</v>
+        <v>76</v>
+      </c>
+      <c r="H47" s="19" t="s">
+        <v>100</v>
       </c>
       <c r="I47" s="30"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <f t="shared" si="1"/>
+      <c r="A48" s="13">
+        <f>ROW()-1</f>
         <v>47</v>
       </c>
-      <c r="B48" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="C48" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="E48" s="28" t="s">
+      <c r="B48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E48" s="18" t="s">
         <v>290</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="H48" s="21" t="s">
-        <v>112</v>
+        <v>76</v>
+      </c>
+      <c r="H48" s="19" t="s">
+        <v>98</v>
       </c>
       <c r="I48" s="30"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="13">
-        <f t="shared" si="1"/>
+        <f>ROW()-1</f>
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>232</v>
+        <v>278</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="E49" s="18" t="s">
         <v>290</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="H49" s="19" t="s">
-        <v>144</v>
+        <v>101</v>
       </c>
       <c r="I49" s="30"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="13">
-        <f t="shared" si="1"/>
+        <f>ROW()-1</f>
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="E50" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="F50" s="2" t="s">
-        <v>303</v>
+      <c r="F50" s="13" t="s">
+        <v>306</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="H50" s="21" t="s">
-        <v>120</v>
+        <v>71</v>
+      </c>
+      <c r="H50" s="19" t="s">
+        <v>88</v>
       </c>
       <c r="I50" s="30"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="13">
-        <f t="shared" si="1"/>
+        <f>ROW()-1</f>
         <v>50</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C51" s="18" t="s">
-        <v>214</v>
+      <c r="B51" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>245</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>148</v>
+        <v>81</v>
       </c>
       <c r="E51" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="F51" s="2" t="s">
-        <v>311</v>
+      <c r="F51" s="13" t="s">
+        <v>306</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H51" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="I51" s="30"/>
+        <v>82</v>
+      </c>
+      <c r="I51" s="31" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="13">
-        <f t="shared" si="1"/>
+        <f>ROW()-1</f>
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>156</v>
+        <v>83</v>
       </c>
       <c r="E52" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="F52" s="2" t="s">
-        <v>311</v>
+      <c r="F52" s="13" t="s">
+        <v>306</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H52" s="19" t="s">
-        <v>166</v>
+        <v>84</v>
       </c>
       <c r="I52" s="30"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="13">
-        <f t="shared" si="1"/>
+        <f>ROW()-1</f>
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>155</v>
+        <v>85</v>
       </c>
       <c r="E53" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="F53" s="2" t="s">
-        <v>311</v>
+      <c r="F53" s="13" t="s">
+        <v>306</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H53" s="19" t="s">
-        <v>164</v>
+        <v>86</v>
       </c>
       <c r="I53" s="30"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="15">
-        <f t="shared" si="1"/>
+      <c r="A54" s="13">
+        <f>ROW()-1</f>
         <v>53</v>
       </c>
-      <c r="B54" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C54" s="24" t="s">
-        <v>211</v>
-      </c>
-      <c r="D54" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="E54" s="24" t="s">
-        <v>295</v>
-      </c>
-      <c r="F54" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="G54" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="H54" s="25" t="s">
-        <v>195</v>
+      <c r="B54" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C54" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E54" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="G54" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="H54" s="19" t="s">
+        <v>80</v>
       </c>
       <c r="I54" s="30"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="13">
-        <f t="shared" si="1"/>
+        <f>ROW()-1</f>
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>24</v>
+        <v>314</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>247</v>
+        <v>321</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>85</v>
+        <v>320</v>
       </c>
       <c r="E55" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="F55" s="13" t="s">
-        <v>306</v>
+      <c r="F55" s="2" t="s">
+        <v>311</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="H55" s="19" t="s">
-        <v>86</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="H55" s="19"/>
       <c r="I55" s="30"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="13">
-        <f t="shared" si="1"/>
+        <f>ROW()-1</f>
         <v>55</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C56" s="18" t="s">
-        <v>244</v>
+      <c r="B56" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C56" s="23" t="s">
+        <v>218</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="E56" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="F56" s="13" t="s">
-        <v>306</v>
+      <c r="F56" s="2" t="s">
+        <v>311</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H56" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="I56" s="30"/>
+        <v>161</v>
+      </c>
+      <c r="I56" s="31" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="13">
-        <f t="shared" si="1"/>
+        <f>ROW()-1</f>
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E57" s="18" t="s">
         <v>290</v>
@@ -3248,107 +3256,107 @@
         <v>67</v>
       </c>
       <c r="H57" s="19" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="I57" s="30"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="13">
-        <f t="shared" si="1"/>
+        <f>ROW()-1</f>
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>256</v>
+        <v>323</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>110</v>
+        <v>322</v>
       </c>
       <c r="E58" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="F58" s="13" t="s">
-        <v>308</v>
+      <c r="F58" s="2" t="s">
+        <v>311</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H58" s="19" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="I58" s="30"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="13">
-        <f t="shared" si="1"/>
+        <f>ROW()-1</f>
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>257</v>
+        <v>214</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="E59" s="18" t="s">
         <v>290</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="G59" s="13" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="H59" s="19" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="I59" s="30"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="13">
-        <f t="shared" si="1"/>
+        <f>ROW()-1</f>
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>265</v>
+        <v>222</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="E60" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="F60" s="13" t="s">
-        <v>308</v>
+      <c r="F60" s="2" t="s">
+        <v>311</v>
       </c>
       <c r="G60" s="13" t="s">
-        <v>307</v>
+        <v>67</v>
       </c>
       <c r="H60" s="19" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="I60" s="30"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="13">
-        <f t="shared" si="1"/>
+        <f>ROW()-1</f>
         <v>60</v>
       </c>
-      <c r="B61" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C61" s="23" t="s">
-        <v>216</v>
+      <c r="B61" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" s="18" t="s">
+        <v>221</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E61" s="18" t="s">
         <v>290</v>
@@ -3360,111 +3368,109 @@
         <v>67</v>
       </c>
       <c r="H61" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="I61" s="31" t="s">
-        <v>210</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="I61" s="30"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="13">
-        <f t="shared" si="1"/>
+        <f>ROW()-1</f>
         <v>61</v>
       </c>
-      <c r="B62" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C62" s="23" t="s">
-        <v>235</v>
+      <c r="B62" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C62" s="18" t="s">
+        <v>215</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="E62" s="18" t="s">
         <v>290</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G62" s="13" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H62" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="I62" s="31" t="s">
-        <v>210</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="I62" s="30"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="13">
-        <f t="shared" si="1"/>
+        <f>ROW()-1</f>
         <v>62</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C63" s="18" t="s">
-        <v>277</v>
+      <c r="B63" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C63" s="23" t="s">
+        <v>216</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>92</v>
+        <v>150</v>
       </c>
       <c r="E63" s="18" t="s">
         <v>290</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G63" s="13" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="H63" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="I63" s="30"/>
+        <v>159</v>
+      </c>
+      <c r="I63" s="31" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="13">
-        <f t="shared" si="1"/>
+        <f>ROW()-1</f>
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="E64" s="18" t="s">
         <v>290</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="H64" s="19" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="I64" s="30"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="13">
-        <f t="shared" si="1"/>
+        <f>ROW()-1</f>
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E65" s="18" t="s">
         <v>290</v>
@@ -3476,51 +3482,49 @@
         <v>67</v>
       </c>
       <c r="H65" s="19" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I65" s="30"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="13">
-        <f t="shared" ref="A66:A74" si="2">ROW()-1</f>
+        <f>ROW()-1</f>
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>60</v>
+        <v>315</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>220</v>
+        <v>317</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>154</v>
+        <v>316</v>
       </c>
       <c r="E66" s="18" t="s">
         <v>290</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="H66" s="19" t="s">
-        <v>163</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="H66" s="21"/>
       <c r="I66" s="30"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="13">
-        <f t="shared" si="2"/>
+        <f>ROW()-1</f>
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E67" s="18" t="s">
         <v>290</v>
@@ -3529,206 +3533,202 @@
         <v>303</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>68</v>
+        <v>312</v>
       </c>
       <c r="H67" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="I67" s="29"/>
+        <v>118</v>
+      </c>
+      <c r="I67" s="30"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="13">
-        <f t="shared" si="2"/>
+        <f>ROW()-1</f>
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>271</v>
+        <v>224</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>203</v>
+        <v>113</v>
       </c>
       <c r="E68" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="F68" s="13" t="s">
-        <v>306</v>
+      <c r="F68" s="2" t="s">
+        <v>303</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="H68" s="20" t="s">
-        <v>207</v>
+        <v>312</v>
+      </c>
+      <c r="H68" s="21" t="s">
+        <v>114</v>
       </c>
       <c r="I68" s="30"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="13">
-        <f t="shared" si="2"/>
+        <f>ROW()-1</f>
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c r="C69" s="18" t="s">
-        <v>270</v>
+        <v>225</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>200</v>
+        <v>115</v>
       </c>
       <c r="E69" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="F69" s="13" t="s">
-        <v>306</v>
+      <c r="F69" s="2" t="s">
+        <v>303</v>
       </c>
       <c r="G69" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="H69" s="20" t="s">
-        <v>206</v>
+        <v>312</v>
+      </c>
+      <c r="H69" s="21" t="s">
+        <v>116</v>
       </c>
       <c r="I69" s="30"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="13">
-        <f t="shared" si="2"/>
+        <f>ROW()-1</f>
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>275</v>
+        <v>228</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="E70" s="18" t="s">
         <v>290</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="H70" s="19" t="s">
-        <v>98</v>
+        <v>312</v>
+      </c>
+      <c r="H70" s="21" t="s">
+        <v>122</v>
       </c>
       <c r="I70" s="30"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="13">
-        <f t="shared" si="2"/>
+      <c r="A71" s="1">
+        <f>ROW()-1</f>
         <v>70</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C71" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="D71" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="E71" s="18" t="s">
+      <c r="B71" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C71" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="D71" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="E71" s="28" t="s">
         <v>290</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="G71" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="H71" s="19" t="s">
-        <v>101</v>
+        <v>312</v>
+      </c>
+      <c r="H71" s="21" t="s">
+        <v>112</v>
       </c>
       <c r="I71" s="30"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="13">
-        <f t="shared" si="2"/>
+        <f>ROW()-1</f>
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C72" s="18" t="s">
-        <v>272</v>
+        <v>227</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>201</v>
+        <v>119</v>
       </c>
       <c r="E72" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="F72" s="13" t="s">
-        <v>306</v>
+      <c r="F72" s="2" t="s">
+        <v>303</v>
       </c>
       <c r="G72" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="H72" s="20" t="s">
-        <v>208</v>
+        <v>312</v>
+      </c>
+      <c r="H72" s="21" t="s">
+        <v>120</v>
       </c>
       <c r="I72" s="30"/>
     </row>
     <row r="73" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="13">
-        <f t="shared" si="2"/>
+        <f>ROW()-1</f>
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>41</v>
+        <v>299</v>
       </c>
       <c r="C73" s="18" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>188</v>
+        <v>282</v>
       </c>
       <c r="E73" s="18" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="G73" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="H73" s="8" t="s">
-        <v>189</v>
+        <v>292</v>
+      </c>
+      <c r="G73" s="13"/>
+      <c r="H73" s="19" t="s">
+        <v>294</v>
       </c>
       <c r="I73" s="30"/>
     </row>
     <row r="74" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="13">
-        <f t="shared" si="2"/>
+        <f>ROW()-1</f>
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>15</v>
+        <v>300</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>243</v>
+        <v>285</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>171</v>
+        <v>284</v>
       </c>
       <c r="E74" s="18" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="G74" s="13" t="s">
-        <v>72</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="G74" s="13"/>
       <c r="H74" s="19" t="s">
-        <v>177</v>
+        <v>293</v>
       </c>
       <c r="I74" s="30"/>
     </row>
@@ -3743,11 +3743,11 @@
   </sheetData>
   <autoFilter ref="A1:I72">
     <sortState ref="A2:I74">
-      <sortCondition ref="B1:B72"/>
+      <sortCondition ref="G1:G72"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="D36" r:id="rId1"/>
+    <hyperlink ref="D58" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId2"/>
